--- a/MavenDemoTest/src/main/java/com/ebgames/saf/testdata/Test.xlsx
+++ b/MavenDemoTest/src/main/java/com/ebgames/saf/testdata/Test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Keyword</t>
   </si>
@@ -24,9 +24,6 @@
     <t>Result</t>
   </si>
   <si>
-    <t>Xbox One</t>
-  </si>
-  <si>
     <t>3DS</t>
   </si>
   <si>
@@ -58,6 +55,9 @@
   </si>
   <si>
     <t>Pass</t>
+  </si>
+  <si>
+    <t>***</t>
   </si>
 </sst>
 </file>
@@ -411,7 +411,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -429,60 +429,63 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
